--- a/data/MASTER_FILE_AKHIL.xlsx
+++ b/data/MASTER_FILE_AKHIL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>Name of State</t>
   </si>
@@ -34,7 +34,13 @@
     <t>Andhra</t>
   </si>
   <si>
-    <t xml:space="preserve">Note: the above data is DUMMY DATA for structure reference purpose, delete this data after understading the structure </t>
+    <t xml:space="preserve">Note: this data is DUMMY DATA for structure reference purpose, delete this data after understading the structure </t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>and so on.. For all states…</t>
   </si>
 </sst>
 </file>
@@ -385,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +406,7 @@
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -434,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -451,7 +457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -468,7 +474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -485,7 +491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -501,8 +507,11 @@
       <c r="E6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -519,7 +528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -536,7 +545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -553,7 +562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -570,7 +579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -587,7 +596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -604,9 +613,196 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2003</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>2004</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
         <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2005</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>2006</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>2007</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>2008</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>2009</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>2010</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>2011</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>2012</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>2013</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
